--- a/data/pca/factorExposure/factorExposure_2017-01-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.004658474196670085</v>
+        <v>0.01056719836871167</v>
       </c>
       <c r="C2">
-        <v>-0.01797023451813239</v>
+        <v>-0.03986044653049751</v>
       </c>
       <c r="D2">
-        <v>-0.03505435830907579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03165896452546493</v>
+      </c>
+      <c r="E2">
+        <v>-0.05271247971549584</v>
+      </c>
+      <c r="F2">
+        <v>-0.00420950016598141</v>
+      </c>
+      <c r="G2">
+        <v>0.1150320866496854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04410567907004774</v>
+        <v>0.03828908690951265</v>
       </c>
       <c r="C3">
-        <v>0.02309266445731153</v>
+        <v>-0.1001260620574449</v>
       </c>
       <c r="D3">
-        <v>-0.1170500200220209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01781842181222313</v>
+      </c>
+      <c r="E3">
+        <v>-0.09705196503821609</v>
+      </c>
+      <c r="F3">
+        <v>-0.01867073380533534</v>
+      </c>
+      <c r="G3">
+        <v>0.1270943114492649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04192885689849959</v>
+        <v>0.05427959676073658</v>
       </c>
       <c r="C4">
-        <v>-0.0008117753969417402</v>
+        <v>-0.06657621795425672</v>
       </c>
       <c r="D4">
-        <v>-0.06617641742354169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02578349536199701</v>
+      </c>
+      <c r="E4">
+        <v>-0.04245802157512479</v>
+      </c>
+      <c r="F4">
+        <v>-0.003171076255420079</v>
+      </c>
+      <c r="G4">
+        <v>0.09957073068597631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0128520277000704</v>
+        <v>0.03400492983683075</v>
       </c>
       <c r="C6">
-        <v>-0.001779375769685068</v>
+        <v>-0.05139173290649461</v>
       </c>
       <c r="D6">
-        <v>-0.05628364592474418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01845678900996274</v>
+      </c>
+      <c r="E6">
+        <v>-0.04800444422265484</v>
+      </c>
+      <c r="F6">
+        <v>-0.00333225490048313</v>
+      </c>
+      <c r="G6">
+        <v>0.08563044143906964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.002448830833032663</v>
+        <v>0.01976063932259575</v>
       </c>
       <c r="C7">
-        <v>-0.00500240789670506</v>
+        <v>-0.03812146498614002</v>
       </c>
       <c r="D7">
-        <v>-0.03609381721536356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01505722345788529</v>
+      </c>
+      <c r="E7">
+        <v>-0.0194376491853579</v>
+      </c>
+      <c r="F7">
+        <v>0.003299505091348461</v>
+      </c>
+      <c r="G7">
+        <v>0.1272068007887752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0014221373654521</v>
+        <v>0.003640699536052527</v>
       </c>
       <c r="C8">
-        <v>-0.001261833000170772</v>
+        <v>-0.02236005362345373</v>
       </c>
       <c r="D8">
-        <v>0.001228136380407495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004048042516735737</v>
+      </c>
+      <c r="E8">
+        <v>-0.03224696720514017</v>
+      </c>
+      <c r="F8">
+        <v>-0.001662667347602503</v>
+      </c>
+      <c r="G8">
+        <v>0.06890399085158541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01424888030047444</v>
+        <v>0.0325108280888863</v>
       </c>
       <c r="C9">
-        <v>-0.00369030049861213</v>
+        <v>-0.0473565247156233</v>
       </c>
       <c r="D9">
-        <v>-0.03961052300243546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01687629200011482</v>
+      </c>
+      <c r="E9">
+        <v>-0.02889656156778188</v>
+      </c>
+      <c r="F9">
+        <v>0.0005584860944802093</v>
+      </c>
+      <c r="G9">
+        <v>0.1032630385861874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1290536275721708</v>
+        <v>0.1001780069099745</v>
       </c>
       <c r="C10">
-        <v>0.005806620934867047</v>
+        <v>0.1851244157777204</v>
       </c>
       <c r="D10">
-        <v>0.171078618216697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01539395890539742</v>
+      </c>
+      <c r="E10">
+        <v>-0.02115096938132308</v>
+      </c>
+      <c r="F10">
+        <v>-0.02171837227586253</v>
+      </c>
+      <c r="G10">
+        <v>0.05274236758551936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.01891263735400265</v>
+        <v>0.03508335315278398</v>
       </c>
       <c r="C11">
-        <v>0.013440619885506</v>
+        <v>-0.05240484172302544</v>
       </c>
       <c r="D11">
-        <v>-0.05116839399963459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002724923286543545</v>
+      </c>
+      <c r="E11">
+        <v>-0.0219552440583404</v>
+      </c>
+      <c r="F11">
+        <v>0.01515481377478281</v>
+      </c>
+      <c r="G11">
+        <v>0.08590458332878971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02022019655114875</v>
+        <v>0.0374050630700398</v>
       </c>
       <c r="C12">
-        <v>0.007534432723857717</v>
+        <v>-0.04730580461902211</v>
       </c>
       <c r="D12">
-        <v>-0.04568065653995194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006672202177812767</v>
+      </c>
+      <c r="E12">
+        <v>-0.01122240615116282</v>
+      </c>
+      <c r="F12">
+        <v>0.002190388383587399</v>
+      </c>
+      <c r="G12">
+        <v>0.08113591574936234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.003894902205965979</v>
+        <v>0.01196954924218344</v>
       </c>
       <c r="C13">
-        <v>-0.0153399010364517</v>
+        <v>-0.03855260135042338</v>
       </c>
       <c r="D13">
-        <v>-0.03439909445381061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02841835110238277</v>
+      </c>
+      <c r="E13">
+        <v>-0.05319197539379645</v>
+      </c>
+      <c r="F13">
+        <v>-0.01372998053202738</v>
+      </c>
+      <c r="G13">
+        <v>0.1441799313467013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.001828129147785758</v>
+        <v>0.009098287454668603</v>
       </c>
       <c r="C14">
-        <v>-0.004246405790285747</v>
+        <v>-0.02765810390416252</v>
       </c>
       <c r="D14">
-        <v>-0.02166843471132329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0111192968943217</v>
+      </c>
+      <c r="E14">
+        <v>-0.01490567248542087</v>
+      </c>
+      <c r="F14">
+        <v>-0.007107771463049395</v>
+      </c>
+      <c r="G14">
+        <v>0.1160471560221139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.01715773434932969</v>
+        <v>0.03358805401122933</v>
       </c>
       <c r="C16">
-        <v>0.01035586016981822</v>
+        <v>-0.0449615789060475</v>
       </c>
       <c r="D16">
-        <v>-0.03721811290700192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002271072972482254</v>
+      </c>
+      <c r="E16">
+        <v>-0.01815124303469026</v>
+      </c>
+      <c r="F16">
+        <v>-0.004268312112949277</v>
+      </c>
+      <c r="G16">
+        <v>0.08966900699493606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01718388550437591</v>
+        <v>0.01931941254012473</v>
       </c>
       <c r="C19">
-        <v>2.006666049734897e-06</v>
+        <v>-0.04992248652635665</v>
       </c>
       <c r="D19">
-        <v>-0.05038069719989352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02128584024326222</v>
+      </c>
+      <c r="E19">
+        <v>-0.08982798537872876</v>
+      </c>
+      <c r="F19">
+        <v>-0.006213813935570048</v>
+      </c>
+      <c r="G19">
+        <v>0.1410662720185408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.002969771732730883</v>
+        <v>0.01468726030487062</v>
       </c>
       <c r="C20">
-        <v>-0.004055361666173687</v>
+        <v>-0.04061233134732996</v>
       </c>
       <c r="D20">
-        <v>-0.03507394463858317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01524627064579994</v>
+      </c>
+      <c r="E20">
+        <v>-0.04213608945359074</v>
+      </c>
+      <c r="F20">
+        <v>-0.02409676550351042</v>
+      </c>
+      <c r="G20">
+        <v>0.1131435948047649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.003035857648859343</v>
+        <v>0.008674517216349273</v>
       </c>
       <c r="C21">
-        <v>-0.009608288724964316</v>
+        <v>-0.03814943402718975</v>
       </c>
       <c r="D21">
-        <v>-0.02793961211053276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02061169226783676</v>
+      </c>
+      <c r="E21">
+        <v>-0.05329026799498984</v>
+      </c>
+      <c r="F21">
+        <v>-0.01294491692578103</v>
+      </c>
+      <c r="G21">
+        <v>0.1451470524805409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001145329086419259</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.00639849228934658</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002310551093207031</v>
+      </c>
+      <c r="E22">
+        <v>-0.01830754371906726</v>
+      </c>
+      <c r="F22">
+        <v>0.005447469183093155</v>
+      </c>
+      <c r="G22">
+        <v>0.003895735133257864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001154860389338854</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006365790295834629</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002306354729172907</v>
+      </c>
+      <c r="E23">
+        <v>-0.01831874525033496</v>
+      </c>
+      <c r="F23">
+        <v>0.005237706459820093</v>
+      </c>
+      <c r="G23">
+        <v>0.003732701774083962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01154447534778818</v>
+        <v>0.02906635328957585</v>
       </c>
       <c r="C24">
-        <v>0.0054093282576543</v>
+        <v>-0.04903938719444299</v>
       </c>
       <c r="D24">
-        <v>-0.04368253217523434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007409119028952605</v>
+      </c>
+      <c r="E24">
+        <v>-0.01721876512082153</v>
+      </c>
+      <c r="F24">
+        <v>0.006465134089052958</v>
+      </c>
+      <c r="G24">
+        <v>0.09001494357033585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.02794120430456813</v>
+        <v>0.04220967328417321</v>
       </c>
       <c r="C25">
-        <v>0.006304315254156392</v>
+        <v>-0.05694345201636827</v>
       </c>
       <c r="D25">
-        <v>-0.05593339462607559</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01148489655396568</v>
+      </c>
+      <c r="E25">
+        <v>-0.008501499262320168</v>
+      </c>
+      <c r="F25">
+        <v>0.004877827088415268</v>
+      </c>
+      <c r="G25">
+        <v>0.0956892439217758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.00145725449611091</v>
+        <v>0.0141229409829205</v>
       </c>
       <c r="C26">
-        <v>-0.02171794916183059</v>
+        <v>-0.01142632744192939</v>
       </c>
       <c r="D26">
-        <v>-0.006470519120725161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02447714792139133</v>
+      </c>
+      <c r="E26">
+        <v>-0.01014677947085732</v>
+      </c>
+      <c r="F26">
+        <v>-0.00618917542166453</v>
+      </c>
+      <c r="G26">
+        <v>0.08661806511528371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1659486055023237</v>
+        <v>0.130697002620818</v>
       </c>
       <c r="C28">
-        <v>-0.003245951393023603</v>
+        <v>0.2418951909393369</v>
       </c>
       <c r="D28">
-        <v>0.1948335062536412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006627756946371454</v>
+      </c>
+      <c r="E28">
+        <v>-0.00304603151791569</v>
+      </c>
+      <c r="F28">
+        <v>-0.02088196934372233</v>
+      </c>
+      <c r="G28">
+        <v>0.04692280669540469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.004120457657899608</v>
+        <v>0.008367164243449946</v>
       </c>
       <c r="C29">
-        <v>-0.002959173675960133</v>
+        <v>-0.02335278619435309</v>
       </c>
       <c r="D29">
-        <v>-0.01846500748492446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01000638180747605</v>
+      </c>
+      <c r="E29">
+        <v>-0.0077866244755927</v>
+      </c>
+      <c r="F29">
+        <v>-0.01240750775254234</v>
+      </c>
+      <c r="G29">
+        <v>0.1048378926381263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02816062927895935</v>
+        <v>0.03911626547742487</v>
       </c>
       <c r="C30">
-        <v>-0.001392663891579868</v>
+        <v>-0.06707512233511072</v>
       </c>
       <c r="D30">
-        <v>-0.09058246436498191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03041815088533199</v>
+      </c>
+      <c r="E30">
+        <v>-0.07153738894322066</v>
+      </c>
+      <c r="F30">
+        <v>0.0215417340104973</v>
+      </c>
+      <c r="G30">
+        <v>0.1290343343849027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02843666183817326</v>
+        <v>0.05288133595521311</v>
       </c>
       <c r="C31">
-        <v>0.005216012217717796</v>
+        <v>-0.03962135154894232</v>
       </c>
       <c r="D31">
-        <v>-0.01727453609275402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003987418669315594</v>
+      </c>
+      <c r="E31">
+        <v>0.001990587104449747</v>
+      </c>
+      <c r="F31">
+        <v>-0.03604260875509611</v>
+      </c>
+      <c r="G31">
+        <v>0.09785506437666557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004303071499845415</v>
+        <v>0.001781543988589758</v>
       </c>
       <c r="C32">
-        <v>0.01349731704577674</v>
+        <v>-0.02058564493784611</v>
       </c>
       <c r="D32">
-        <v>-0.02914758504358116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001742129246431617</v>
+      </c>
+      <c r="E32">
+        <v>-0.04714383203355414</v>
+      </c>
+      <c r="F32">
+        <v>0.03097261118233703</v>
+      </c>
+      <c r="G32">
+        <v>0.07874160087832964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01536426807637764</v>
+        <v>0.02670593651587315</v>
       </c>
       <c r="C33">
-        <v>0.001356971756302286</v>
+        <v>-0.05022451671352268</v>
       </c>
       <c r="D33">
-        <v>-0.05142724579910004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01735710024578567</v>
+      </c>
+      <c r="E33">
+        <v>-0.0568186806732489</v>
+      </c>
+      <c r="F33">
+        <v>0.005921788547230338</v>
+      </c>
+      <c r="G33">
+        <v>0.1599696826455341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.03135981708841484</v>
+        <v>0.04141630777074316</v>
       </c>
       <c r="C34">
-        <v>0.02387148589403331</v>
+        <v>-0.05965699592899715</v>
       </c>
       <c r="D34">
-        <v>-0.05511391730548158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004364366050957863</v>
+      </c>
+      <c r="E34">
+        <v>-0.01323491266953622</v>
+      </c>
+      <c r="F34">
+        <v>0.01855390611240225</v>
+      </c>
+      <c r="G34">
+        <v>0.08804760836340363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007325699661222831</v>
+        <v>0.01572935600956876</v>
       </c>
       <c r="C36">
-        <v>-0.009663346077191024</v>
+        <v>-0.009711723033903517</v>
       </c>
       <c r="D36">
-        <v>0.001032169524998639</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01316928034963166</v>
+      </c>
+      <c r="E36">
+        <v>-0.01215541436711182</v>
+      </c>
+      <c r="F36">
+        <v>-0.009795136602792317</v>
+      </c>
+      <c r="G36">
+        <v>0.09427783337469382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0222912630240636</v>
+        <v>0.03158421404321173</v>
       </c>
       <c r="C38">
-        <v>0.01670707887219087</v>
+        <v>-0.0284908608474029</v>
       </c>
       <c r="D38">
-        <v>-0.0180819573941139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007453669292427575</v>
+      </c>
+      <c r="E38">
+        <v>-0.008023519239140107</v>
+      </c>
+      <c r="F38">
+        <v>-0.01714183487335514</v>
+      </c>
+      <c r="G38">
+        <v>0.08702329366744173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.008128136486990095</v>
+        <v>0.03523979613900177</v>
       </c>
       <c r="C39">
-        <v>0.009052591932822381</v>
+        <v>-0.07825436869149309</v>
       </c>
       <c r="D39">
-        <v>-0.08805494310464736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01247933217804439</v>
+      </c>
+      <c r="E39">
+        <v>-0.03305674332038649</v>
+      </c>
+      <c r="F39">
+        <v>0.01526541837299609</v>
+      </c>
+      <c r="G39">
+        <v>0.0974294677502997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01531758414310763</v>
+        <v>0.01322943033665864</v>
       </c>
       <c r="C40">
-        <v>-0.002791716924028356</v>
+        <v>-0.037128816065829</v>
       </c>
       <c r="D40">
-        <v>-0.0255115968209307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01555472994962239</v>
+      </c>
+      <c r="E40">
+        <v>-0.0363063832280807</v>
+      </c>
+      <c r="F40">
+        <v>-0.01560266004137192</v>
+      </c>
+      <c r="G40">
+        <v>0.123254206637315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01077137908944269</v>
+        <v>0.01963460168157957</v>
       </c>
       <c r="C41">
-        <v>-0.002181670981605534</v>
+        <v>-0.002875984297505282</v>
       </c>
       <c r="D41">
-        <v>0.00607262424026712</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005254545905332591</v>
+      </c>
+      <c r="E41">
+        <v>-0.01165929387655795</v>
+      </c>
+      <c r="F41">
+        <v>-0.01497621591482551</v>
+      </c>
+      <c r="G41">
+        <v>0.0905451474015638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.007865441728521501</v>
+        <v>0.005014513516033558</v>
       </c>
       <c r="C42">
-        <v>-0.07662807783374077</v>
+        <v>-0.02833224101014989</v>
       </c>
       <c r="D42">
-        <v>-0.07309094474655776</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08447746687243854</v>
+      </c>
+      <c r="E42">
+        <v>0.008666619311976115</v>
+      </c>
+      <c r="F42">
+        <v>-0.03687588041767742</v>
+      </c>
+      <c r="G42">
+        <v>-0.02297835734567959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02424189555890714</v>
+        <v>0.03495288091982374</v>
       </c>
       <c r="C43">
-        <v>0.003051510534591532</v>
+        <v>-0.01805759765040388</v>
       </c>
       <c r="D43">
-        <v>-0.005474808104145901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006512189506185433</v>
+      </c>
+      <c r="E43">
+        <v>-0.02651986765035478</v>
+      </c>
+      <c r="F43">
+        <v>-0.01165937676839776</v>
+      </c>
+      <c r="G43">
+        <v>0.1192636034456472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.004039512224850599</v>
+        <v>0.01299398763067348</v>
       </c>
       <c r="C44">
-        <v>0.007359935113227796</v>
+        <v>-0.05653001775910512</v>
       </c>
       <c r="D44">
-        <v>-0.05290396859194463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007776016568048732</v>
+      </c>
+      <c r="E44">
+        <v>-0.03231625094129691</v>
+      </c>
+      <c r="F44">
+        <v>-0.01840040269042841</v>
+      </c>
+      <c r="G44">
+        <v>0.1180075091197902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.003048403880955952</v>
+        <v>0.008543826597703105</v>
       </c>
       <c r="C46">
-        <v>-0.01131045417857813</v>
+        <v>-0.01581372635217413</v>
       </c>
       <c r="D46">
-        <v>-0.000204269317621697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0129756751407843</v>
+      </c>
+      <c r="E46">
+        <v>-0.001401177909318708</v>
+      </c>
+      <c r="F46">
+        <v>-0.01453187194356495</v>
+      </c>
+      <c r="G46">
+        <v>0.109179566521674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.04428599988220763</v>
+        <v>0.07920538304954364</v>
       </c>
       <c r="C47">
-        <v>0.02372291258956016</v>
+        <v>-0.07228052375016378</v>
       </c>
       <c r="D47">
-        <v>-0.05850138048350216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004954295602595809</v>
+      </c>
+      <c r="E47">
+        <v>0.00989176926420573</v>
+      </c>
+      <c r="F47">
+        <v>-0.04727639890008466</v>
+      </c>
+      <c r="G47">
+        <v>0.08548584749646379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005490224521868458</v>
+        <v>0.01895872458566</v>
       </c>
       <c r="C48">
-        <v>0.0003673022250932366</v>
+        <v>-0.01327439428442599</v>
       </c>
       <c r="D48">
-        <v>-0.0005102720585037698</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002719098166957536</v>
+      </c>
+      <c r="E48">
+        <v>-0.00666055044855067</v>
+      </c>
+      <c r="F48">
+        <v>-0.02070300536129329</v>
+      </c>
+      <c r="G48">
+        <v>0.1030198485344336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.04680322906527918</v>
+        <v>0.07383412213018364</v>
       </c>
       <c r="C50">
-        <v>0.02154085005518689</v>
+        <v>-0.07377936604588078</v>
       </c>
       <c r="D50">
-        <v>-0.05077247285740791</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002045578726216059</v>
+      </c>
+      <c r="E50">
+        <v>0.010500536361828</v>
+      </c>
+      <c r="F50">
+        <v>-0.04950650425098818</v>
+      </c>
+      <c r="G50">
+        <v>0.0956805533596593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.004922476000923113</v>
+        <v>0.01164147932892421</v>
       </c>
       <c r="C51">
-        <v>7.47029483001156e-05</v>
+        <v>-0.03655462032360141</v>
       </c>
       <c r="D51">
-        <v>-0.0313353964424413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01165395432459826</v>
+      </c>
+      <c r="E51">
+        <v>-0.03473257766359564</v>
+      </c>
+      <c r="F51">
+        <v>0.01133264254399248</v>
+      </c>
+      <c r="G51">
+        <v>0.1224485492493159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.06772149912796743</v>
+        <v>0.081312296536588</v>
       </c>
       <c r="C53">
-        <v>0.03196573998059582</v>
+        <v>-0.08404303734194321</v>
       </c>
       <c r="D53">
-        <v>-0.08052956176593551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004092540590175183</v>
+      </c>
+      <c r="E53">
+        <v>0.0325146438595305</v>
+      </c>
+      <c r="F53">
+        <v>-0.05343567919022233</v>
+      </c>
+      <c r="G53">
+        <v>0.08786217247958063</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0202845767168925</v>
+        <v>0.03235060966871771</v>
       </c>
       <c r="C54">
-        <v>0.006157950052444934</v>
+        <v>-0.0173576518132629</v>
       </c>
       <c r="D54">
-        <v>0.005621534355485336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0005454214457566433</v>
+      </c>
+      <c r="E54">
+        <v>-0.02067181906318127</v>
+      </c>
+      <c r="F54">
+        <v>-0.01061861660764567</v>
+      </c>
+      <c r="G54">
+        <v>0.1104070730931614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.04574015072809781</v>
+        <v>0.07378323001286038</v>
       </c>
       <c r="C55">
-        <v>0.02441515615685813</v>
+        <v>-0.06784770977418611</v>
       </c>
       <c r="D55">
-        <v>-0.06250557599657267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005571527555053802</v>
+      </c>
+      <c r="E55">
+        <v>0.03081731885475423</v>
+      </c>
+      <c r="F55">
+        <v>-0.05182012513842878</v>
+      </c>
+      <c r="G55">
+        <v>0.06673946639107006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.09669576366733657</v>
+        <v>0.1352831360515573</v>
       </c>
       <c r="C56">
-        <v>0.05023953242071262</v>
+        <v>-0.1072824132103568</v>
       </c>
       <c r="D56">
-        <v>-0.1131070081552215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01315508120934635</v>
+      </c>
+      <c r="E56">
+        <v>0.03999117502348212</v>
+      </c>
+      <c r="F56">
+        <v>-0.0646864037291424</v>
+      </c>
+      <c r="G56">
+        <v>0.04664215514600474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01178737377305232</v>
+        <v>0.00416433014253782</v>
       </c>
       <c r="C57">
-        <v>-0.01681065219233119</v>
+        <v>-0.00465867967263419</v>
       </c>
       <c r="D57">
-        <v>-0.01693265527121716</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02277154815409058</v>
+      </c>
+      <c r="E57">
+        <v>-0.02480339324503231</v>
+      </c>
+      <c r="F57">
+        <v>0.0009799366153153755</v>
+      </c>
+      <c r="G57">
+        <v>0.01615528771429845</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.03087165830772617</v>
+        <v>0.04226266783818958</v>
       </c>
       <c r="C58">
-        <v>0.02840749222883998</v>
+        <v>-0.04120155399138557</v>
       </c>
       <c r="D58">
-        <v>-0.1056822818307397</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03079750487920992</v>
+      </c>
+      <c r="E58">
+        <v>-0.8080659393401242</v>
+      </c>
+      <c r="F58">
+        <v>-0.4889893509816186</v>
+      </c>
+      <c r="G58">
+        <v>-0.2569618939787299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.202924363973208</v>
+        <v>0.1605212651297709</v>
       </c>
       <c r="C59">
-        <v>0.01220508496254179</v>
+        <v>0.2065233814880771</v>
       </c>
       <c r="D59">
-        <v>0.1868391605523707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01077142720196655</v>
+      </c>
+      <c r="E59">
+        <v>-0.02432680247912619</v>
+      </c>
+      <c r="F59">
+        <v>-0.004601711269606419</v>
+      </c>
+      <c r="G59">
+        <v>0.03674788776536949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3015185508519372</v>
+        <v>0.2873154174478811</v>
       </c>
       <c r="C60">
-        <v>0.08382916972320759</v>
+        <v>-0.1160129032606484</v>
       </c>
       <c r="D60">
-        <v>-0.176435514843217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01511299675769816</v>
+      </c>
+      <c r="E60">
+        <v>-0.08805855964729024</v>
+      </c>
+      <c r="F60">
+        <v>0.3201722030652823</v>
+      </c>
+      <c r="G60">
+        <v>-0.1700992566597651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01473841651325119</v>
+        <v>0.03889738674707056</v>
       </c>
       <c r="C61">
-        <v>0.01321674518407392</v>
+        <v>-0.06533329532384399</v>
       </c>
       <c r="D61">
-        <v>-0.06906346188248944</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006456931412414847</v>
+      </c>
+      <c r="E61">
+        <v>-0.03146005049974116</v>
+      </c>
+      <c r="F61">
+        <v>0.01018606121275801</v>
+      </c>
+      <c r="G61">
+        <v>0.09682163483793453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.005687818510694986</v>
+        <v>0.01436972697938634</v>
       </c>
       <c r="C63">
-        <v>-0.0006840111057129132</v>
+        <v>-0.03004176300786135</v>
       </c>
       <c r="D63">
-        <v>-0.03049623046385071</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008906049464567845</v>
+      </c>
+      <c r="E63">
+        <v>-0.006336755541114681</v>
+      </c>
+      <c r="F63">
+        <v>-0.01525012970881674</v>
+      </c>
+      <c r="G63">
+        <v>0.09293823761538067</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0381741232422677</v>
+        <v>0.04975875108639297</v>
       </c>
       <c r="C64">
-        <v>0.01069588744160404</v>
+        <v>-0.04654035370126889</v>
       </c>
       <c r="D64">
-        <v>-0.03876695578697122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005957492381031528</v>
+      </c>
+      <c r="E64">
+        <v>-0.005694206144259048</v>
+      </c>
+      <c r="F64">
+        <v>0.00718731115414397</v>
+      </c>
+      <c r="G64">
+        <v>0.098646759095185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.06098518463670461</v>
+        <v>0.07308435699613644</v>
       </c>
       <c r="C65">
-        <v>0.01471472696468519</v>
+        <v>-0.06031153730357177</v>
       </c>
       <c r="D65">
-        <v>-0.09260032857379526</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01773349605843892</v>
+      </c>
+      <c r="E65">
+        <v>-0.04985915521294265</v>
+      </c>
+      <c r="F65">
+        <v>0.01153959417363734</v>
+      </c>
+      <c r="G65">
+        <v>0.04139523859016488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.01850032524707847</v>
+        <v>0.04753792320894525</v>
       </c>
       <c r="C66">
-        <v>0.02054591779306645</v>
+        <v>-0.1062793409619282</v>
       </c>
       <c r="D66">
-        <v>-0.1340732098114668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01310094759407263</v>
+      </c>
+      <c r="E66">
+        <v>-0.0529038285076552</v>
+      </c>
+      <c r="F66">
+        <v>0.02523733271161665</v>
+      </c>
+      <c r="G66">
+        <v>0.1030496980828502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04593631765924183</v>
+        <v>0.05511080064306081</v>
       </c>
       <c r="C67">
-        <v>0.02118748939608879</v>
+        <v>-0.03436314780869519</v>
       </c>
       <c r="D67">
-        <v>-0.03201951240022369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006135678176463168</v>
+      </c>
+      <c r="E67">
+        <v>0.003541152377274918</v>
+      </c>
+      <c r="F67">
+        <v>-0.01257860715040753</v>
+      </c>
+      <c r="G67">
+        <v>0.07262332049926125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1948894010384121</v>
+        <v>0.1598045486111313</v>
       </c>
       <c r="C68">
-        <v>-0.01719364315284947</v>
+        <v>0.2693006341705</v>
       </c>
       <c r="D68">
-        <v>0.2271722459321915</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005127269255445449</v>
+      </c>
+      <c r="E68">
+        <v>0.0006773092315885066</v>
+      </c>
+      <c r="F68">
+        <v>-0.04468424060007718</v>
+      </c>
+      <c r="G68">
+        <v>0.021393041492309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.05108075048314558</v>
+        <v>0.08187124726858748</v>
       </c>
       <c r="C69">
-        <v>0.02869831920204072</v>
+        <v>-0.07467875136877279</v>
       </c>
       <c r="D69">
-        <v>-0.05598893326055551</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008983370895292159</v>
+      </c>
+      <c r="E69">
+        <v>0.0231128711400799</v>
+      </c>
+      <c r="F69">
+        <v>-0.02815865844992251</v>
+      </c>
+      <c r="G69">
+        <v>0.0974672482578464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1752235968758601</v>
+        <v>0.1460218102494832</v>
       </c>
       <c r="C71">
-        <v>-0.00332727577147737</v>
+        <v>0.2289599888443169</v>
       </c>
       <c r="D71">
-        <v>0.1880238049170131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002800289532771413</v>
+      </c>
+      <c r="E71">
+        <v>-0.0316574133325823</v>
+      </c>
+      <c r="F71">
+        <v>-0.02657532976538081</v>
+      </c>
+      <c r="G71">
+        <v>0.06629454650482552</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.05776080231944832</v>
+        <v>0.08607746605681429</v>
       </c>
       <c r="C72">
-        <v>0.03539887422921369</v>
+        <v>-0.06925068305722161</v>
       </c>
       <c r="D72">
-        <v>-0.07677354759594365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.007756321051328901</v>
+      </c>
+      <c r="E72">
+        <v>0.001975850337286192</v>
+      </c>
+      <c r="F72">
+        <v>0.03298027160627119</v>
+      </c>
+      <c r="G72">
+        <v>0.08401833275469631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4040754518585591</v>
+        <v>0.3711010997975282</v>
       </c>
       <c r="C73">
-        <v>0.1159790369154536</v>
+        <v>-0.1241753106781909</v>
       </c>
       <c r="D73">
-        <v>-0.2646025950272162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02758881636665809</v>
+      </c>
+      <c r="E73">
+        <v>-0.2167935378049178</v>
+      </c>
+      <c r="F73">
+        <v>0.5464309806051086</v>
+      </c>
+      <c r="G73">
+        <v>-0.319215321605703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08236805333987615</v>
+        <v>0.1046374876693741</v>
       </c>
       <c r="C74">
-        <v>0.04885465402203871</v>
+        <v>-0.1096810777737793</v>
       </c>
       <c r="D74">
-        <v>-0.1258296871659619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009550740635946542</v>
+      </c>
+      <c r="E74">
+        <v>0.01405768850497568</v>
+      </c>
+      <c r="F74">
+        <v>-0.05808497160600291</v>
+      </c>
+      <c r="G74">
+        <v>0.07108906340955704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1875227802160507</v>
+        <v>0.2461460726241691</v>
       </c>
       <c r="C75">
-        <v>0.09079329450058629</v>
+        <v>-0.1530391573240278</v>
       </c>
       <c r="D75">
-        <v>-0.1806633908135875</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03253611397450983</v>
+      </c>
+      <c r="E75">
+        <v>0.1010703199402431</v>
+      </c>
+      <c r="F75">
+        <v>-0.1449953621275414</v>
+      </c>
+      <c r="G75">
+        <v>-0.008178161593092601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.09285091021598667</v>
+        <v>0.1149980443909751</v>
       </c>
       <c r="C76">
-        <v>0.05840413270852797</v>
+        <v>-0.1108859054712127</v>
       </c>
       <c r="D76">
-        <v>-0.1272503317927174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01832546298597846</v>
+      </c>
+      <c r="E76">
+        <v>0.04368570623501537</v>
+      </c>
+      <c r="F76">
+        <v>-0.08790472086850845</v>
+      </c>
+      <c r="G76">
+        <v>0.05612785018496167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.03692668373596945</v>
+        <v>0.07060066682329591</v>
       </c>
       <c r="C77">
-        <v>0.01310557235615411</v>
+        <v>-0.05743619539849735</v>
       </c>
       <c r="D77">
-        <v>-0.07195551859047943</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01087343119579017</v>
+      </c>
+      <c r="E77">
+        <v>-0.05423322347122522</v>
+      </c>
+      <c r="F77">
+        <v>-0.003133002460312653</v>
+      </c>
+      <c r="G77">
+        <v>0.07258490023094034</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.02825996789435345</v>
+        <v>0.04078281837369767</v>
       </c>
       <c r="C78">
-        <v>0.01318881879579195</v>
+        <v>-0.05192671494130025</v>
       </c>
       <c r="D78">
-        <v>-0.05893117686428731</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.007727408766966316</v>
+      </c>
+      <c r="E78">
+        <v>-0.04457008671804424</v>
+      </c>
+      <c r="F78">
+        <v>0.03047981475406573</v>
+      </c>
+      <c r="G78">
+        <v>0.1057247733556324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001815677364199384</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.000787407345723644</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0007370423259178207</v>
+      </c>
+      <c r="E79">
+        <v>-0.007019816275131489</v>
+      </c>
+      <c r="F79">
+        <v>-0.0002454818499433211</v>
+      </c>
+      <c r="G79">
+        <v>0.006505589487506282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04338800030188567</v>
+        <v>0.04127119721590619</v>
       </c>
       <c r="C80">
-        <v>0.01127798205627128</v>
+        <v>-0.05375433943318661</v>
       </c>
       <c r="D80">
-        <v>-0.07078012021516268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01413074670461446</v>
+      </c>
+      <c r="E80">
+        <v>-0.03183352577757053</v>
+      </c>
+      <c r="F80">
+        <v>-0.001455310722281173</v>
+      </c>
+      <c r="G80">
+        <v>0.05372877768202187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1027900610492005</v>
+        <v>0.1380032972916899</v>
       </c>
       <c r="C81">
-        <v>0.04841785800503116</v>
+        <v>-0.09628641496597852</v>
       </c>
       <c r="D81">
-        <v>-0.09296511735212987</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01581094041451247</v>
+      </c>
+      <c r="E81">
+        <v>0.05952786174364724</v>
+      </c>
+      <c r="F81">
+        <v>-0.1127612679544323</v>
+      </c>
+      <c r="G81">
+        <v>0.02432191487182361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.02551651218685111</v>
+        <v>0.1484653370316195</v>
       </c>
       <c r="C82">
-        <v>0.01025907996202686</v>
+        <v>-0.09037518082559352</v>
       </c>
       <c r="D82">
-        <v>-0.02263275692413538</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01386706995525168</v>
+      </c>
+      <c r="E82">
+        <v>0.1300989439021865</v>
+      </c>
+      <c r="F82">
+        <v>-0.04088120313651741</v>
+      </c>
+      <c r="G82">
+        <v>0.06220746663788372</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01869198823968417</v>
+        <v>0.03328426659226025</v>
       </c>
       <c r="C83">
-        <v>0.003708792118167568</v>
+        <v>-0.03240281912690977</v>
       </c>
       <c r="D83">
-        <v>-0.02161829064244253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007162668109195349</v>
+      </c>
+      <c r="E83">
+        <v>-0.03587575897889418</v>
+      </c>
+      <c r="F83">
+        <v>0.03151932531801684</v>
+      </c>
+      <c r="G83">
+        <v>0.05715351755381985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1799247164510984</v>
+        <v>0.2080128479697828</v>
       </c>
       <c r="C85">
-        <v>0.08021572275047735</v>
+        <v>-0.1465481181488072</v>
       </c>
       <c r="D85">
-        <v>-0.1961169786168333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01797111785163011</v>
+      </c>
+      <c r="E85">
+        <v>0.1145865146083386</v>
+      </c>
+      <c r="F85">
+        <v>-0.08123278870733731</v>
+      </c>
+      <c r="G85">
+        <v>-0.04668649149941186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009079409400740764</v>
+        <v>0.01304939569713143</v>
       </c>
       <c r="C86">
-        <v>0.001538055703900567</v>
+        <v>-0.02764014576563595</v>
       </c>
       <c r="D86">
-        <v>-0.02887711570938569</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01296450696118257</v>
+      </c>
+      <c r="E86">
+        <v>-0.06614244622326745</v>
+      </c>
+      <c r="F86">
+        <v>0.02303437814360105</v>
+      </c>
+      <c r="G86">
+        <v>0.1819138214932194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.005896373826079217</v>
+        <v>0.02048840297509453</v>
       </c>
       <c r="C87">
-        <v>-0.004987391115629866</v>
+        <v>-0.01593841746098261</v>
       </c>
       <c r="D87">
-        <v>-0.02840227415463163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01354115684383283</v>
+      </c>
+      <c r="E87">
+        <v>-0.1011155171854129</v>
+      </c>
+      <c r="F87">
+        <v>-0.01711210964045426</v>
+      </c>
+      <c r="G87">
+        <v>0.1212968012026829</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06430655375620455</v>
+        <v>0.09047325389959396</v>
       </c>
       <c r="C88">
-        <v>0.001573504750505147</v>
+        <v>-0.07147220405665823</v>
       </c>
       <c r="D88">
-        <v>-0.06184926050574029</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02248085893868567</v>
+      </c>
+      <c r="E88">
+        <v>0.002500165511540888</v>
+      </c>
+      <c r="F88">
+        <v>-0.02069436515560126</v>
+      </c>
+      <c r="G88">
+        <v>0.1021862498505895</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2996001604416041</v>
+        <v>0.2350866861677527</v>
       </c>
       <c r="C89">
-        <v>-0.01150545094589335</v>
+        <v>0.3651816696609731</v>
       </c>
       <c r="D89">
-        <v>0.3200970384661399</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0005477887197514426</v>
+      </c>
+      <c r="E89">
+        <v>0.02292220071549309</v>
+      </c>
+      <c r="F89">
+        <v>-0.01987065897864455</v>
+      </c>
+      <c r="G89">
+        <v>0.08059862475086763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2621250136878434</v>
+        <v>0.2132837921233468</v>
       </c>
       <c r="C90">
-        <v>-0.007666219540800091</v>
+        <v>0.3148176477110053</v>
       </c>
       <c r="D90">
-        <v>0.289632404339742</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004555128447974314</v>
+      </c>
+      <c r="E90">
+        <v>0.00749984539877039</v>
+      </c>
+      <c r="F90">
+        <v>-0.04950275559115049</v>
+      </c>
+      <c r="G90">
+        <v>0.05186747964702532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1477368120141945</v>
+        <v>0.1845043775440579</v>
       </c>
       <c r="C91">
-        <v>0.06911525352582987</v>
+        <v>-0.137215174006925</v>
       </c>
       <c r="D91">
-        <v>-0.1192257426229264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02332034212394936</v>
+      </c>
+      <c r="E91">
+        <v>0.08324953799954937</v>
+      </c>
+      <c r="F91">
+        <v>-0.1137244818642775</v>
+      </c>
+      <c r="G91">
+        <v>0.03211934024527939</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2396590458152067</v>
+        <v>0.200251084648603</v>
       </c>
       <c r="C92">
-        <v>0.0364972179558739</v>
+        <v>0.2570540632017051</v>
       </c>
       <c r="D92">
-        <v>0.2215393710573339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03826560522267464</v>
+      </c>
+      <c r="E92">
+        <v>-0.02265634710694203</v>
+      </c>
+      <c r="F92">
+        <v>-0.05611610695133569</v>
+      </c>
+      <c r="G92">
+        <v>0.09016050074867263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2748604589665731</v>
+        <v>0.2359248691455958</v>
       </c>
       <c r="C93">
-        <v>0.00641523921299171</v>
+        <v>0.3074154521639695</v>
       </c>
       <c r="D93">
-        <v>0.2614503621419876</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01054225538738024</v>
+      </c>
+      <c r="E93">
+        <v>-0.005300627261151061</v>
+      </c>
+      <c r="F93">
+        <v>-0.03868883393326443</v>
+      </c>
+      <c r="G93">
+        <v>0.06042287987718301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2039900077424126</v>
+        <v>0.3201730340000735</v>
       </c>
       <c r="C94">
-        <v>0.07284991546512178</v>
+        <v>-0.1928356397853077</v>
       </c>
       <c r="D94">
-        <v>-0.181238269170232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02592511539171887</v>
+      </c>
+      <c r="E94">
+        <v>0.3403096750026414</v>
+      </c>
+      <c r="F94">
+        <v>-0.4267107337411155</v>
+      </c>
+      <c r="G94">
+        <v>-0.3801885686736967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.05295573641671267</v>
+        <v>0.0928650916691431</v>
       </c>
       <c r="C95">
-        <v>0.04526185280352084</v>
+        <v>-0.08169819986774422</v>
       </c>
       <c r="D95">
-        <v>-0.1425338085396904</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009204448005712677</v>
+      </c>
+      <c r="E95">
+        <v>-0.1050088534419222</v>
+      </c>
+      <c r="F95">
+        <v>0.1578942201396067</v>
+      </c>
+      <c r="G95">
+        <v>0.06640761165421827</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1925702974813389</v>
+        <v>0.1906023453323542</v>
       </c>
       <c r="C98">
-        <v>0.07410232691627555</v>
+        <v>-0.05049535529958905</v>
       </c>
       <c r="D98">
-        <v>-0.09564139599614691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01023690764224551</v>
+      </c>
+      <c r="E98">
+        <v>-0.1247573710626382</v>
+      </c>
+      <c r="F98">
+        <v>0.2108914842698392</v>
+      </c>
+      <c r="G98">
+        <v>-0.04361247390295282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.003795596549993066</v>
+        <v>0.008211575837643401</v>
       </c>
       <c r="C101">
-        <v>-0.002839048229521495</v>
+        <v>-0.02322452485160076</v>
       </c>
       <c r="D101">
-        <v>-0.01867058491117243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009825846722703842</v>
+      </c>
+      <c r="E101">
+        <v>-0.007358079155370126</v>
+      </c>
+      <c r="F101">
+        <v>-0.01330427200137432</v>
+      </c>
+      <c r="G101">
+        <v>0.1044776150292594</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.09511125924608681</v>
+        <v>0.1172326155426875</v>
       </c>
       <c r="C102">
-        <v>0.03203705737492474</v>
+        <v>-0.08623298978181362</v>
       </c>
       <c r="D102">
-        <v>-0.09400221175266557</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0002501108911115906</v>
+      </c>
+      <c r="E102">
+        <v>0.04210406855067714</v>
+      </c>
+      <c r="F102">
+        <v>-0.02390355772696741</v>
+      </c>
+      <c r="G102">
+        <v>0.01677122695249702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1965533952103425</v>
+        <v>0.02110233189494396</v>
       </c>
       <c r="C104">
-        <v>-0.9571506779375586</v>
+        <v>0.02909532147642068</v>
       </c>
       <c r="D104">
-        <v>-0.1670001682477318</v>
+        <v>0.9869586645346048</v>
+      </c>
+      <c r="E104">
+        <v>0.07326753430893204</v>
+      </c>
+      <c r="F104">
+        <v>-0.02631303814520485</v>
+      </c>
+      <c r="G104">
+        <v>-0.03972901324125604</v>
       </c>
     </row>
   </sheetData>
